--- a/biology/Médecine/Léiomyome/Léiomyome.xlsx
+++ b/biology/Médecine/Léiomyome/Léiomyome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9iomyome</t>
+          <t>Léiomyome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un léiomyome (ou liomyome) est une tumeur bénigne formée de cellules musculaires lisses. Dans de rares cas, il peut produire des métastases[1],[2] ; on parle alors de léiomyosarcome.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un léiomyome (ou liomyome) est une tumeur bénigne formée de cellules musculaires lisses. Dans de rares cas, il peut produire des métastases, ; on parle alors de léiomyosarcome.
 Avec le rhabdomyome, il constitue le groupe des « myomes ».
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9iomyome</t>
+          <t>Léiomyome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le léiomyome peut théoriquement survenir sur tous types de muscle lisse. La littérature évoque notamment l'œsophage[3], le muscle utérin[4],[5] (pouvant poser problème en cas de grossesse[6] et cause majeure d'hystérectomie au moment de la préménopause[7]) et ovarien[8] ainsi que l'œil (corps ciliaire[9],[10]), la peau et les muqueuses[11],[12] et des muqueuses[13] qui peuvent toucher la voie urinaire[14] ou le mamelon[15] et plus exceptionnellement la vessie[16] de la vulve[17],[18] ou l'intérieur du testicule[19].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le léiomyome peut théoriquement survenir sur tous types de muscle lisse. La littérature évoque notamment l'œsophage, le muscle utérin, (pouvant poser problème en cas de grossesse et cause majeure d'hystérectomie au moment de la préménopause) et ovarien ainsi que l'œil (corps ciliaire,), la peau et les muqueuses, et des muqueuses qui peuvent toucher la voie urinaire ou le mamelon et plus exceptionnellement la vessie de la vulve, ou l'intérieur du testicule.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9iomyome</t>
+          <t>Léiomyome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe des cas héréditaires et familiaux, laissant supposer dans ce cas une composante ou prédisposition génétique[20],[21],[22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des cas héréditaires et familiaux, laissant supposer dans ce cas une composante ou prédisposition génétique.
 </t>
         </is>
       </c>
